--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="935" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="935" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1. App design" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>App Design: What should the App do? How should it look like?</t>
   </si>
@@ -107,10 +107,24 @@
     <t>Fill Database with data from existing Acoustic Motion Concepts database</t>
   </si>
   <si>
-    <t>Redux: design App state. Which data should be stored/cached? All? Only visible data sets? None (should data only bes stored in the database and only requested from the backend)? What tasks/actions can be performed by the user AND the App itself? Implementation of these actions in a Redux way. Implementation of undo/redo. Implementation of routes as part of the App state.</t>
+    <r>
+      <t xml:space="preserve">Redux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: design App state. Which data should be stored/cached? All? Only visible data sets? None (should data only bes stored in the database and only requested from the backend)? What tasks/actions can be performed by the user AND the App itself? Implementation of these actions in a Redux way. Implementation of undo/redo. Implementation of routes as part of the App state.</t>
+    </r>
   </si>
   <si>
     <t>Additionally: unit testing</t>
+  </si>
+  <si>
+    <t>if any changes on the data occures, Notifier is called accordingly by the App</t>
   </si>
   <si>
     <t>Action binding: bind all actions to the coresponding implemented reducers.</t>
@@ -134,6 +148,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,12 +169,14 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,7 +221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,6 +238,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,62 +266,70 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF99CCFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CSeite &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF99CCFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -327,13 +356,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -360,13 +389,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -393,13 +422,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -442,7 +471,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -533,7 +562,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -566,7 +595,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -599,7 +628,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -632,7 +661,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -665,7 +694,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -698,7 +727,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
@@ -731,7 +760,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
